--- a/docs/PT2/PT2_30.07.24v_output.xlsx
+++ b/docs/PT2/PT2_30.07.24v_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:N47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,810 +505,961 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1730823545.9613912</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1730823548.5327342</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1730823545.9613912.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1730823548.5327342.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>291.37</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>291.19</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-0.1800000000000068</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1730823552.0422614</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1730823552.9005637</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1730823552.0422614.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1730823552.9005637.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>290.58</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>290.5</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.07999999999998408</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1730823561.7410717</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1730823563.246364</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730823561.7410717.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730823563.246364.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>132.41</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>132.42</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-0.009999999999990905</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1730823570.1962376</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1730823570.2518795</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730823570.1962376.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730823570.2518795.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>6806</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>6806.5</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.5</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1730823571.2896008</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1730823572.7222257</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730823571.2896008.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730823572.7222257.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>6810.5</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>6801.5</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-9</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1730823580.889945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1730823581.149779</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730823580.889945.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730823581.149779.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>512</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>512.75</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.75</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1730823581.577321</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1730823583.0696003</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730823581.577321.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730823583.0696003.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>512.15</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>511.9</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>-0.25</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1730823586.610387</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1730823590.9233086</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730823586.610387.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730823590.9233086.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>1048.8</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>1048</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-0.7999999999999545</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1730823591.4422915</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1730823592.8151028</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730823591.4422915.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730823592.8151028.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>1048.2</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>1046</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-2.200000000000045</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0.21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1730823594.7235737</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1730823594.7235737.png</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1730823594.7235737.png</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>1042</v>
       </c>
-      <c r="J12" t="n">
-        <v>1042</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
+      <c r="L12" t="n">
+        <v>1047.2</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-5.200000000000045</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1730823600.9891582</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1730823601.406764</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730823600.9891582.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730823601.406764.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>127.5</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>127.56</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.06000000000000227</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1730823602.7531786</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1730823603.5571656</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730823602.7531786.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730823603.5571656.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>127.64</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>127.48</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>-0.1599999999999966</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1730823609.8886247</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1730823611.3034477</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730823609.8886247.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730823611.3034477.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>166.48</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>166.36</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>-0.1199999999999761</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1730823613.1283672</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1730823613.1283672.png</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1730823613.1283672.png</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>165.66</v>
       </c>
-      <c r="J16" t="n">
-        <v>165.66</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
+      <c r="L16" t="n">
+        <v>165.68</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-0.02000000000001023</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1730823614.733184</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1730823616.2906957</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730823614.733184.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730823616.2906957.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>51.74</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>51.6</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>-0.1400000000000006</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.27</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1730823620.9722283</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1730823622.1166623</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730823620.9722283.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730823622.1166623.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>51.45</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>51.45</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1301,97 +1467,115 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1730823623.1287515</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1730823623.6295044</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730823623.1287515.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730823623.6295044.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>51.43</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>51.37</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.06000000000000227</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1730823624.5729983</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1730823624.626677</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730823624.5729983.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730823624.626677.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>1420.2</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>1420.2</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1399,383 +1583,455 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1730823624.6809285</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1730823624.7355926</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730823624.6809285.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730823624.7355926.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>1420.2</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>1420.4</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.2000000000000455</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1730823627.3739796</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1730823631.713213</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730823627.3739796.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730823631.713213.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>1421.8</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>1419.8</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>-2</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1730823631.7278528</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1730823632.0529003</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730823631.7278528.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730823632.0529003.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>1419.8</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>1419.4</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.3999999999998636</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1730823632.1703255</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1730823632.3597</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730823632.1703255.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730823632.3597.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>1419.8</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>1419.2</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>0.5999999999999091</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1730823634.3801258</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1730823636.6812077</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730823634.3801258.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730823636.6812077.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>60.54</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>60.61</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>-0.07000000000000028</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1730823641.541501</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1730823641.7830448</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730823641.541501.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730823641.7830448.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>60.45</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>60.39</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>0.06000000000000227</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1730823642.054449</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1730823642.262405</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730823642.054449.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730823642.262405.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>60.43</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>60.37</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.06000000000000227</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1730823642.5054018</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1730823642.5054018.png</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1730823642.5054018.png</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>60.4</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>60.4</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1783,907 +2039,1078 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1730823646.7758486</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1730823648.7627926</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730823646.7758486.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730823648.7627926.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>141.36</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>141.12</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>-0.2400000000000091</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1730823650.0033004</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1730823650.158517</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730823650.0033004.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730823650.158517.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>141.12</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>140.88</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.2400000000000091</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1730823650.283445</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1730823650.5850983</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730823650.283445.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730823650.5850983.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>141.04</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>140.78</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.2599999999999909</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1730823651.0235708</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1730823652.3910599</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/ABIO1730823651.0235708.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/ABIO1730823652.3910599.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>54</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>54.05</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.04999999999999716</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1730823653.2930624</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1730823654.4176354</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/ABIO1730823653.2930624.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/ABIO1730823654.4176354.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>54.07</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>54.02</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>-0.04999999999999716</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1730823656.6450846</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1730823657.6475637</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/ABIO1730823656.6450846.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/ABIO1730823657.6475637.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>53.85</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>53.9</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>-0.04999999999999716</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1730823658.017777</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1730823658.2734864</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/ABIO1730823658.017777.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/ABIO1730823658.2734864.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>53.88</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>53.82</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.06000000000000227</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1730823658.9863613</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1730823659.676689</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/ABIO1730823658.9863613.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/ABIO1730823659.676689.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>53.79</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>53.57</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.2199999999999989</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.41</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1730823660.0466094</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1730823660.5659752</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/ABIO1730823660.0466094.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/ABIO1730823660.5659752.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>53.62</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>53.5</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.1199999999999974</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1730823660.6977684</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>./test_images/ABIO1730823660.6977684.png</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
+          <t>./test_images/ABIO1730823660.6977684.png</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>53.53</v>
       </c>
-      <c r="J38" t="n">
-        <v>53.53</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
+      <c r="L38" t="n">
+        <v>53.51</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.02000000000000313</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1730823661.9796453</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1730823665.4044824</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/BSPB1730823661.9796453.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/BSPB1730823665.4044824.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>375.26</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>375.18</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>-0.07999999999998408</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1730823666.0154564</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1730823666.1277003</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/BSPB1730823666.0154564.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/BSPB1730823666.1277003.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>374.81</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>374.48</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.3299999999999841</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1730823668.8047411</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>./test_images/BSPB1730823668.8047411.png</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
+          <t>./test_images/BSPB1730823668.8047411.png</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>371.95</v>
       </c>
-      <c r="J41" t="n">
-        <v>371.95</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
+      <c r="L41" t="n">
+        <v>371.92</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.02999999999997272</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1730823671.6243463</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1730823673.3726153</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/MXI1730823671.6243463.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/MXI1730823673.3726153.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>3022.7</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>3021.75</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>-0.9499999999998181</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1730823680.9966497</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1730823681.426117</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730823680.9966497.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730823681.426117.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>34.585</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>34.6</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>0.01500000000000057</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1730823682.8004274</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1730823685.8123012</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730823682.8004274.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730823685.8123012.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>34.49</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>34.615</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>-0.125</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-0.36</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1730823685.8279192</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1730823685.878688</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730823685.8279192.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730823685.878688.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>34.615</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>34.62</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.004999999999995453</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1730823685.9294646</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1730823688.562634</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730823685.9294646.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730823688.562634.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>34.61</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>34.395</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>-0.2149999999999963</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-0.62</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1730823688.578249</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>./test_images/RUAL1730823688.578249.png</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
+          <t>./test_images/RUAL1730823688.578249.png</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>34.395</v>
       </c>
-      <c r="J47" t="n">
-        <v>34.395</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
+      <c r="L47" t="n">
+        <v>34.53</v>
+      </c>
+      <c r="M47" t="n">
+        <v>-0.134999999999998</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-0.39</v>
       </c>
     </row>
   </sheetData>
@@ -2697,7 +3124,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2721,6 +3148,21 @@
           <t>count</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -2729,11 +3171,20 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3500000000000014</v>
+        <v>0.3700000000000045</v>
       </c>
       <c r="C2" t="n">
         <v>7</v>
       </c>
+      <c r="D2" t="n">
+        <v>0.0528571428571435</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -2747,6 +3198,15 @@
       <c r="C3" t="n">
         <v>5</v>
       </c>
+      <c r="D3" t="n">
+        <v>-0.1600000000000364</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.05999999999999998</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.01</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -2755,11 +3215,20 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.3200000000000003</v>
+        <v>-0.4549999999999983</v>
       </c>
       <c r="C4" t="n">
         <v>5</v>
       </c>
+      <c r="D4" t="n">
+        <v>-0.09099999999999966</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-1.32</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-0.26</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -2773,6 +3242,15 @@
       <c r="C5" t="n">
         <v>4</v>
       </c>
+      <c r="D5" t="n">
+        <v>0.01250000000000107</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.08000000000000002</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -2781,11 +3259,20 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.25</v>
+        <v>0.2799999999999727</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
+      <c r="D6" t="n">
+        <v>0.09333333333332423</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.07999999999999999</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -2799,6 +3286,15 @@
       <c r="C7" t="n">
         <v>3</v>
       </c>
+      <c r="D7" t="n">
+        <v>-0.0266666666666661</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.05</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -2807,11 +3303,20 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3</v>
+        <v>-8.200000000000045</v>
       </c>
       <c r="C8" t="n">
         <v>3</v>
       </c>
+      <c r="D8" t="n">
+        <v>-2.733333333333348</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.79</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.26</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -2825,6 +3330,15 @@
       <c r="C9" t="n">
         <v>3</v>
       </c>
+      <c r="D9" t="n">
+        <v>0.08666666666666363</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -2838,6 +3352,15 @@
       <c r="C10" t="n">
         <v>2</v>
       </c>
+      <c r="D10" t="n">
+        <v>-0.04999999999999716</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.04</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -2851,6 +3374,15 @@
       <c r="C11" t="n">
         <v>2</v>
       </c>
+      <c r="D11" t="n">
+        <v>-4.25</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.06</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -2859,11 +3391,20 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.1199999999999761</v>
+        <v>-0.1399999999999864</v>
       </c>
       <c r="C12" t="n">
         <v>2</v>
       </c>
+      <c r="D12" t="n">
+        <v>-0.06999999999999318</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.07999999999999999</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.04</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -2877,6 +3418,15 @@
       <c r="C13" t="n">
         <v>2</v>
       </c>
+      <c r="D13" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.09999999999999999</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -2890,6 +3440,15 @@
       <c r="C14" t="n">
         <v>2</v>
       </c>
+      <c r="D14" t="n">
+        <v>-0.05000000000001137</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.02</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -2903,6 +3462,15 @@
       <c r="C15" t="n">
         <v>1</v>
       </c>
+      <c r="D15" t="n">
+        <v>-0.009999999999990905</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.01</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -2916,6 +3484,15 @@
       <c r="C16" t="n">
         <v>1</v>
       </c>
+      <c r="D16" t="n">
+        <v>-0.9499999999998181</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.03</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -2929,6 +3506,11 @@
       <c r="C17" t="n">
         <v>0</v>
       </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
